--- a/Documentation/Sprints/Sprint 3/Sprint 3 - Burndown Chart.xlsx
+++ b/Documentation/Sprints/Sprint 3/Sprint 3 - Burndown Chart.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia Confalone\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,7 +553,7 @@
                   <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,7 +617,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,41 +1641,6 @@
             <v>2.25</v>
           </cell>
         </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>Points remaining</v>
-          </cell>
-          <cell r="G29">
-            <v>16</v>
-          </cell>
-          <cell r="H29">
-            <v>16</v>
-          </cell>
-          <cell r="I29">
-            <v>16</v>
-          </cell>
-          <cell r="J29">
-            <v>16</v>
-          </cell>
-          <cell r="K29">
-            <v>11</v>
-          </cell>
-          <cell r="L29">
-            <v>8</v>
-          </cell>
-          <cell r="M29">
-            <v>8</v>
-          </cell>
-          <cell r="N29">
-            <v>8</v>
-          </cell>
-          <cell r="O29">
-            <v>8</v>
-          </cell>
-          <cell r="P29">
-            <v>8</v>
-          </cell>
-        </row>
         <row r="31">
           <cell r="B31" t="str">
             <v>Ideal burndown remaining</v>
@@ -2017,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="96" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="96" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2171,7 +2136,9 @@
       <c r="O6" s="4">
         <v>1</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
@@ -2925,7 +2892,7 @@
       </c>
       <c r="P35" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
@@ -2976,7 +2943,7 @@
       </c>
       <c r="P36" s="4">
         <f t="shared" si="1"/>
-        <v>-2.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.35">
@@ -3005,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="P37" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.35">
@@ -3056,7 +3023,7 @@
       </c>
       <c r="P38" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.35">
